--- a/SpendingonSalaryFun26June.xlsx
+++ b/SpendingonSalaryFun26June.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GSkyDrive\Qcfinance\vba\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Salary</t>
   </si>
@@ -39,6 +34,18 @@
   </si>
   <si>
     <t>Rate of Fun Spending</t>
+  </si>
+  <si>
+    <t>Saving Target</t>
+  </si>
+  <si>
+    <t>2 Way sensitivity Analysis</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -193,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,7 +235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -413,60 +420,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D2" s="4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+      <c r="F2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <f>B3*D2</f>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2">
         <f>B3-B4-B5</f>
-        <v>1125</v>
+        <v>1352</v>
       </c>
       <c r="E6" s="2">
         <f>B6</f>
-        <v>1125</v>
+        <v>1352</v>
       </c>
       <c r="F6" s="4">
         <v>0.1</v>
@@ -481,7 +497,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>2500</v>
       </c>
@@ -492,7 +508,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>3000</v>
       </c>
@@ -503,7 +519,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" s="5">
         <v>3500</v>
       </c>
@@ -512,34 +528,33 @@
       <c r="H9" s="8"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>4000</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <v>4500</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <v>5000</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <v>5500</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="9">
-        <f>B6</f>
-        <v>1125</v>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="F16" s="10">
         <v>0.15</v>
@@ -564,173 +579,85 @@
         <f>J16+0.01</f>
         <v>0.20000000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="10">
+        <f t="shared" ref="L16:N16" si="1">K16+0.01</f>
+        <v>0.21000000000000005</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="1"/>
+        <v>0.22000000000000006</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="1"/>
+        <v>0.23000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <v>2800</v>
       </c>
       <c r="F17">
-        <f t="dataTable" ref="F17:K23" dt2D="1" dtr="1" r1="D2" r2="B3"/>
         <v>1380</v>
       </c>
       <c r="G17">
         <v>1352</v>
       </c>
-      <c r="H17">
-        <v>1324</v>
-      </c>
-      <c r="I17">
-        <v>1296</v>
-      </c>
-      <c r="J17">
-        <v>1268</v>
-      </c>
-      <c r="K17">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <f>E17+100</f>
         <v>2900</v>
       </c>
-      <c r="F18">
-        <v>1465</v>
-      </c>
-      <c r="G18">
-        <v>1436</v>
-      </c>
-      <c r="H18">
-        <v>1407</v>
-      </c>
-      <c r="I18">
-        <v>1378</v>
-      </c>
-      <c r="J18">
-        <v>1349</v>
-      </c>
-      <c r="K18">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
-        <f t="shared" ref="E19:E23" si="1">E18+100</f>
+        <f t="shared" ref="E19:E26" si="2">E18+100</f>
         <v>3000</v>
       </c>
-      <c r="F19">
-        <v>1550</v>
-      </c>
-      <c r="G19">
-        <v>1520</v>
-      </c>
-      <c r="H19">
-        <v>1490</v>
-      </c>
-      <c r="I19">
-        <v>1460</v>
-      </c>
-      <c r="J19">
-        <v>1430</v>
-      </c>
-      <c r="K19">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3100</v>
       </c>
-      <c r="F20">
-        <v>1635</v>
-      </c>
-      <c r="G20">
-        <v>1604</v>
-      </c>
-      <c r="H20">
-        <v>1573</v>
-      </c>
-      <c r="I20">
-        <v>1542</v>
-      </c>
-      <c r="J20">
-        <v>1511</v>
-      </c>
-      <c r="K20">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3200</v>
       </c>
-      <c r="F21">
-        <v>1720</v>
-      </c>
-      <c r="G21">
-        <v>1688</v>
-      </c>
-      <c r="H21">
-        <v>1656</v>
-      </c>
-      <c r="I21">
-        <v>1624</v>
-      </c>
-      <c r="J21">
-        <v>1592</v>
-      </c>
-      <c r="K21">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
         <f>E21+100</f>
         <v>3300</v>
       </c>
-      <c r="F22">
-        <v>1805</v>
-      </c>
-      <c r="G22">
-        <v>1772</v>
-      </c>
-      <c r="H22">
-        <v>1739</v>
-      </c>
-      <c r="I22">
-        <v>1706</v>
-      </c>
-      <c r="J22">
-        <v>1673</v>
-      </c>
-      <c r="K22">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3400</v>
       </c>
-      <c r="F23">
-        <v>1890</v>
-      </c>
-      <c r="G23">
-        <v>1856</v>
-      </c>
-      <c r="H23">
-        <v>1822</v>
-      </c>
-      <c r="I23">
-        <v>1788</v>
-      </c>
-      <c r="J23">
-        <v>1754</v>
-      </c>
-      <c r="K23">
-        <v>1720</v>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>3700</v>
       </c>
     </row>
   </sheetData>
